--- a/Test case my account.xlsx
+++ b/Test case my account.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>test-my.umarkets.com for Web</t>
   </si>
@@ -34,45 +34,43 @@
     <t>Expected result</t>
   </si>
   <si>
-    <t>Windows 10</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Bug_ID</t>
-  </si>
-  <si>
     <t>TG001</t>
   </si>
   <si>
-    <t>Ренистрация нового пользователя с валидными данными</t>
-  </si>
-  <si>
-    <t>Запущен инструмент Pastman</t>
+    <t>Регистрация нового пользователя с валидными данными</t>
+  </si>
+  <si>
+    <t>Запущен инструмент Pоstman</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>1. в поле URL вести logonWithToken?token=&amp;currentUrl=https://test-my.umarkets.com/#register
-2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
-3. В поле для ввода вести данные: { "Email": "jofap@mail4.online", "Password": "qwerty123" }
+    <t>1. в поле URL вести 
+https://test-api.umarkets.com/registration/account?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23register
+2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
+3. В поле для ввода вести данные: { "email": "jofap@mail4.online", "password": "qwerty123", "confirm": "qwerty123" }
 4. Нажать "SEND"</t>
   </si>
   <si>
     <t>Status 200 ok</t>
   </si>
   <si>
+    <t>1. в поле URL вести https://test-api.umarkets.com/account/logon?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23login 
+2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
+3. В поле для ввода вести данные: { "email": " ", "password": "qwerty123" }
+4. Нажать "SEND"</t>
+  </si>
+  <si>
     <t>TG002</t>
   </si>
   <si>
-    <t>Ренистрация нового пользователя с уже зарегистрированными данными данными</t>
-  </si>
-  <si>
-    <t>1. в поле URL вести logon?currentUrl=https://test-my.umarkets.com/#login
-2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
-3. В поле для ввода вести данные: { "Email": "jofap@mail4.online", "Password": "qwerty123" }
+    <t>Регистрация нового пользователя с уже зарегистрированными данными данными</t>
+  </si>
+  <si>
+    <t>1. в поле URL вести https://test-api.umarkets.com/registration/account?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23register
+2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
+3. В поле для ввода вести данные: { "email": "jofap@mail4.online", "password": "qwerty123",  "confirm": "qwerty123" }
 4. Нажать "SEND"</t>
   </si>
   <si>
@@ -82,40 +80,133 @@
     <t>TG003</t>
   </si>
   <si>
-    <t>Авторизация на сайт с валидными данными</t>
+    <t>Регистрация нового пользователя с ошибкой подтвержения пароля</t>
+  </si>
+  <si>
+    <t>1. в поле URL вести https://test-api.umarkets.com/registration/account?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23register
+2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
+3. В поле для ввода вести данные: { "email": "jofap@mail4.online", "password": "qwerty123",  "confirm": "qwerty" }
+4. Нажать "SEND"</t>
   </si>
   <si>
     <t>TG004</t>
   </si>
   <si>
+    <t>Регистрация нового пользователя с валидными данными в поле "email", "Password" не заполнено</t>
+  </si>
+  <si>
+    <t>1. в поле URL вестиhttps://test-api.umarkets.com/registration/account?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23register
+2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
+3. В поле для ввода вести данные: { "email": "jofap@mail4.online", "password": " ",  "confirm": "qwerty123" }
+4. Нажать "SEND"</t>
+  </si>
+  <si>
     <t>TG005</t>
   </si>
   <si>
+    <t>Регистрация нового пользователя с пустым полем "email"</t>
+  </si>
+  <si>
+    <t>1. в поле URL вестиhttps://test-api.umarkets.com/registration/account?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23register
+2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
+3. В поле для ввода вести данные: { "email": "  ", "password": "qwerty123",  "confirm": "qwerty123" }
+4. Нажать "SEND"</t>
+  </si>
+  <si>
     <t>TG006</t>
   </si>
   <si>
+    <t>Авторизация зарегистрированного пользователя с валидными данными</t>
+  </si>
+  <si>
+    <t>1. в поле URL вести https://test-api.umarkets.com/account/logon?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23login 
+2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
+3. В поле для ввода вести данные: { "email": "jofap@mail4.online", "password": "qwerty123" }
+4. Нажать "SEND"</t>
+  </si>
+  <si>
     <t>TG007</t>
   </si>
   <si>
+    <t>Авторизация не зарегистрированного пользователя с валидными данными</t>
+  </si>
+  <si>
+    <t>1. в поле URL вести https://test-api.umarkets.com/account/logon?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23login 
+2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
+3. В поле для ввода вести данные: { "email": "jofap@mail4.online", "password": "qwerty12" }
+4. Нажать "SEND"</t>
+  </si>
+  <si>
     <t>TG008</t>
   </si>
   <si>
+    <t>Авторизация зарегистрированного пользователя с не правильно заполненным полем "email"</t>
+  </si>
+  <si>
+    <t>1. в поле URL вести https://test-api.umarkets.com/account/logon?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23login 
+2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
+3. В поле для ввода вести данные: { "email": "ofap@mail4.online", "password": "qwerty123" }
+4. Нажать "SEND"</t>
+  </si>
+  <si>
     <t>TG009</t>
   </si>
   <si>
+    <t>Авторизация зарегистрированного пользователя с не правильно заполненным полем "Password"</t>
+  </si>
+  <si>
     <t>TG010</t>
   </si>
   <si>
+    <t>Авторизация нового пользователя с валидными данными в поле "email", "Password" не заполнено</t>
+  </si>
+  <si>
+    <t>1. в поле URL вести https://test-api.umarkets.com/account/logon?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23login 
+2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
+3. В поле для ввода вести данные: { "email": "jofap@mail4.online", "password": " " }
+4. Нажать "SEND"</t>
+  </si>
+  <si>
     <t>TG011</t>
   </si>
   <si>
+    <t>Авторизация нового пользователя с валидными данными в поле  "Password", "email" не заполнено</t>
+  </si>
+  <si>
     <t>TG012</t>
   </si>
   <si>
+    <t>Восстановление пароля с валидными данными</t>
+  </si>
+  <si>
+    <t>1. в поле URL вести https://test-api.umarkets.com/account/forgot-password?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23forgotPassword 
+2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
+3. В поле для ввода вести данные: { "email": "jofap@mail4.online" }
+4. Нажать "SEND"</t>
+  </si>
+  <si>
     <t>TG013</t>
   </si>
   <si>
+    <t>Восстановление пароля с не зарегистрированным "email"</t>
+  </si>
+  <si>
+    <t>1. в поле URL вести https://test-api.umarkets.com/account/forgot-password?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23forgotPassword 
+2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
+3. В поле для ввода вести данные: { "email": "jp@mail4.online" }
+4. Нажать "SEND"</t>
+  </si>
+  <si>
     <t>TG014</t>
+  </si>
+  <si>
+    <t>Восстановление пароля с не заполненнымполем "email"</t>
+  </si>
+  <si>
+    <t>1. в поле URL вести https://test-api.umarkets.com/account/forgot-password?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23forgotPassword 
+2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
+3. В поле для ввода вести данные: { "email": " "}
+4. Нажать "SEND"</t>
   </si>
   <si>
     <t>TG015</t>
@@ -167,8 +258,8 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Times"/>
+      <color rgb="FF24292E"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -257,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -266,9 +357,6 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -281,38 +369,29 @@
     <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -336,9 +415,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="8.86"/>
     <col customWidth="1" min="2" max="2" width="30.29"/>
-    <col customWidth="1" min="3" max="3" width="32.14"/>
-    <col customWidth="1" min="4" max="5" width="48.0"/>
+    <col customWidth="1" min="3" max="3" width="24.0"/>
+    <col customWidth="1" min="4" max="4" width="7.71"/>
+    <col customWidth="1" min="5" max="5" width="48.0"/>
     <col customWidth="1" min="6" max="6" width="37.57"/>
   </cols>
   <sheetData>
@@ -351,292 +432,358 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="F4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="G4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="C5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="F5" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="15" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="A18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="A19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="A20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Test case my account.xlsx
+++ b/Test case my account.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>test-my.umarkets.com for Web</t>
   </si>
@@ -101,6 +101,9 @@
 4. Нажать "SEND"</t>
   </si>
   <si>
+    <t>Status 400 Bad Request</t>
+  </si>
+  <si>
     <t>TG005</t>
   </si>
   <si>
@@ -133,8 +136,11 @@
   <si>
     <t>1. в поле URL вести https://test-api.umarkets.com/account/logon?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23login 
 2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
-3. В поле для ввода вести данные: { "email": "jofap@mail4.online", "password": "qwerty12" }
-4. Нажать "SEND"</t>
+3. В поле для ввода вести данные: { "email": "jofa@mail4.online", "password": "qwerty12" }
+4. Нажать "SEND"</t>
+  </si>
+  <si>
+    <t>Status 401 Unauthorized</t>
   </si>
   <si>
     <t>TG008</t>
@@ -149,12 +155,21 @@
 4. Нажать "SEND"</t>
   </si>
   <si>
+    <t>Status 401 "Incorrect username or password."</t>
+  </si>
+  <si>
     <t>TG009</t>
   </si>
   <si>
     <t>Авторизация зарегистрированного пользователя с не правильно заполненным полем "Password"</t>
   </si>
   <si>
+    <t>1. в поле URL вести https://test-api.umarkets.com/account/logon?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23login 
+2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
+3. В поле для ввода вести данные: { "email": "jofap@mail4.online", "password": "qwerty23" }
+4. Нажать "SEND"</t>
+  </si>
+  <si>
     <t>TG010</t>
   </si>
   <si>
@@ -181,7 +196,7 @@
   <si>
     <t>1. в поле URL вести https://test-api.umarkets.com/account/forgot-password?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23forgotPassword 
 2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
-3. В поле для ввода вести данные: { "email": "jofap@mail4.online" }
+3. В поле для ввода вести данные: { "culture": "en", "Email": "jofap@mail4.online", "lang": null }
 4. Нажать "SEND"</t>
   </si>
   <si>
@@ -193,7 +208,7 @@
   <si>
     <t>1. в поле URL вести https://test-api.umarkets.com/account/forgot-password?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23forgotPassword 
 2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
-3. В поле для ввода вести данные: { "email": "jp@mail4.online" }
+3. В поле для ввода вести данные:{ "culture": "en", "Email": "jp@mail4.online", "lang": null }
 4. Нажать "SEND"</t>
   </si>
   <si>
@@ -205,17 +220,8 @@
   <si>
     <t>1. в поле URL вести https://test-api.umarkets.com/account/forgot-password?currentUrl=https%3A%2F%2Ftest-my.umarkets.com%2F%3Flang%3Den%23forgotPassword 
 2. В приложении Postman в вкладке "Body"установить отметку на "raw" и выбираем формат запроса "JSON"
-3. В поле для ввода вести данные: { "email": " "}
-4. Нажать "SEND"</t>
-  </si>
-  <si>
-    <t>TG015</t>
-  </si>
-  <si>
-    <t>TG016</t>
-  </si>
-  <si>
-    <t>TG017</t>
+3. В поле для ввода вести данные: { "culture": "en", "Email": " ", "lang": null }
+4. Нажать "SEND"</t>
   </si>
 </sst>
 </file>
@@ -348,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -386,12 +392,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,10 +417,10 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.86"/>
     <col customWidth="1" min="2" max="2" width="30.29"/>
-    <col customWidth="1" min="3" max="3" width="24.0"/>
+    <col customWidth="1" min="3" max="3" width="9.14"/>
     <col customWidth="1" min="4" max="4" width="7.71"/>
-    <col customWidth="1" min="5" max="5" width="48.0"/>
-    <col customWidth="1" min="6" max="6" width="37.57"/>
+    <col customWidth="1" min="5" max="5" width="97.29"/>
+    <col customWidth="1" min="6" max="6" width="47.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,36 +541,36 @@
       <c r="E7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>17</v>
+      <c r="F7" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>9</v>
@@ -579,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>12</v>
@@ -587,10 +587,10 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>9</v>
@@ -599,18 +599,18 @@
         <v>10</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>9</v>
@@ -619,18 +619,18 @@
         <v>10</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>9</v>
@@ -639,38 +639,38 @@
         <v>10</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>9</v>
@@ -681,16 +681,16 @@
       <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>17</v>
+      <c r="F14" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>9</v>
@@ -699,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>12</v>
@@ -707,10 +707,10 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>9</v>
@@ -719,7 +719,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>17</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>9</v>
@@ -739,51 +739,11 @@
         <v>10</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
